--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-patient</t>
+    <t>http://hl7.no/fhir/ig/hackathon/2025/StructureDefinition/mal-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -2398,15 +2398,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.23828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.49609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2417,27 +2417,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="48.16015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11471,7 +11471,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -759,7 +759,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -859,7 +859,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1655,7 +1655,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1784,7 +1784,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>NK1-7, NK1-3</t>
@@ -2041,7 +2041,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2423,7 +2423,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -11808,7 +11808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>443</v>
       </c>
@@ -16276,12 +16276,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO118">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.3</t>
+    <t>0.4.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.4</t>
+    <t>0.4.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.5</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -96,7 +96,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot3</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -237,19 +237,16 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: CDA (R2)</t>
+  </si>
+  <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Interface Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: CDA (R2)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 V2 Mapping</t>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t>Mapping: LOINC code for the element</t>
@@ -275,20 +272,14 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>Demographics and other administrative information about an individual or animal that is the subject of potential, past, current, or future health-related care, services, or processes.</t>
+    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id.trace('id') in %resource.descendants().select(reference | as(uri))) or descendants().where(reference='#' | as(uri)='#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>administrative.individual</t>
-  </si>
-  <si>
-    <t>Entity, Role, or Act,Patient[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>ParticipantLiving</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Patient[classCode=PAT]</t>
   </si>
   <si>
     <t>ClinicalDocument.recordTarget.patientRole</t>
@@ -313,7 +304,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -352,7 +343,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -374,13 +365,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>IETF language tag for a human language</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/all-languages|6.0.0-ballot3</t>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -403,14 +394,10 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-6
-</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -430,17 +417,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels. Contained resources may be a resource type defined in the FHIR specification, or an [additional resource](http://build.fhir.org/resource.html#additional).</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>dom-2
-dom-4dom-3dom-5</t>
   </si>
   <si>
     <t>N/A</t>
@@ -460,7 +443,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -469,17 +452,21 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -498,22 +485,16 @@
     <t>An identifier for this patient.</t>
   </si>
   <si>
-    <t>Systems MAY use identifier for user identities (using the type='USER'). Refer to the [Security and Privacy](http://hl7.org/fhir/R5/administration-module.html#secpriv) section for additional guidance on representing user identities.</t>
-  </si>
-  <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Participant.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
   </si>
   <si>
     <t>PID-3</t>
@@ -544,16 +525,13 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>Participant.active</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Patient.name</t>
@@ -569,7 +547,7 @@
     <t>A name associated with the individual.</t>
   </si>
   <si>
-    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns. Animal names may be communicated as given names, and optionally may include a family name.</t>
+    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
@@ -578,9 +556,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Participant.name</t>
-  </si>
-  <si>
     <t>.patient.name</t>
   </si>
   <si>
@@ -590,6 +565,10 @@
     <t>Patient.name.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -599,14 +578,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Patient.name.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -637,10 +612,13 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The use of a human name.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|6.0.0-ballot3</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -653,10 +631,6 @@
   </si>
   <si>
     <t>Patient.name.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Text representation of the full name</t>
@@ -804,9 +778,7 @@
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
   </si>
   <si>
-    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).--DO NOT use .telecom properties to represent user identities. Refer to the [Security and Privacy](http://hl7.org/fhir/R5/administration-module.html#secpriv) section for additional guidance on representing user identities.</t>
+    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
@@ -815,9 +787,6 @@
     <t>telecom</t>
   </si>
   <si>
-    <t>ParticipantContactable.telecom</t>
-  </si>
-  <si>
     <t>.telecom</t>
   </si>
   <si>
@@ -830,12 +799,10 @@
     <t>male | female | other | unknown</t>
   </si>
   <si>
-    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.--See the [Patient Gender and Sex section](http://hl7.org/fhir/R5/patient.html#gender) for additional information about communicating patient gender and sex.</t>
-  </si>
-  <si>
-    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.</t>
+    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
@@ -844,13 +811,10 @@
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|6.0.0-ballot3</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
-  </si>
-  <si>
-    <t>ParticipantLiving.gender</t>
   </si>
   <si>
     <t>.patient.administrativeGenderCode</t>
@@ -872,16 +836,13 @@
     <t>The date of birth for the individual.</t>
   </si>
   <si>
-    <t>Partial dates are allowed if the specific date of birth is unknown. There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
   </si>
   <si>
     <t>Age of the individual drives many clinical processes.</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/birthTime</t>
-  </si>
-  <si>
-    <t>ParticipantLiving.birthDate</t>
   </si>
   <si>
     <t>.patient.birthTime</t>
@@ -900,10 +861,10 @@
 dateTime</t>
   </si>
   <si>
-    <t>Indicates if/when the individual is deceased</t>
-  </si>
-  <si>
-    <t>Indicates the date when the individual died, or, if the date is not known or cannot be estimated, a flag indicating the patient is known to be deceased.</t>
+    <t>Indicates if the individual is deceased or not</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
   </si>
   <si>
     <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
@@ -940,9 +901,6 @@
     <t>addr</t>
   </si>
   <si>
-    <t>ParticipantContactable.address</t>
-  </si>
-  <si>
     <t>.addr</t>
   </si>
   <si>
@@ -971,7 +929,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status|6.0.0-ballot3</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -993,17 +951,10 @@
     <t>Whether patient is part of a multiple birth</t>
   </si>
   <si>
-    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).  This count is relative to the total of live births and fetal losses, which MAY be tracked in the `patient-multipleBirthTotal` extension.--The boolean option for this property can also be used to track that there are known to be multiple fetuses prior to birth.</t>
-  </si>
-  <si>
-    <t>Where the valueInteger is provided, the number is the birth number in the sequence.--E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3.-If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).--`valueBoolean` can be used to track fetuses.  `valueInteger` should only be used after live birth.</t>
+    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
+  </si>
+  <si>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
   </si>
   <si>
     <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.</t>
@@ -1040,9 +991,6 @@
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
-    <t>ParticipantLiving.photo</t>
-  </si>
-  <si>
     <t>OBX-5 - needs a profile</t>
   </si>
   <si>
@@ -1065,7 +1013,7 @@
     <t>Need to track people you can contact about the patient.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children or both {hasValue() or (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
@@ -1088,7 +1036,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1098,22 +1046,19 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>The kind of personal relationship</t>
-  </si>
-  <si>
-    <t>The nature of the personal relationship between the patient and the contact person.</t>
-  </si>
-  <si>
-    <t>This property is for personal relationships.  Functional relationships would be represented in `Patient.contact.role`.</t>
-  </si>
-  <si>
-    <t>Used to determine the nature of the personal relationship between the patient and the contact person.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PersonalRelationshipRoleType</t>
+    <t>The kind of relationship</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between the patient and the contact person.</t>
+  </si>
+  <si>
+    <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between a patient and a contact person for that patient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -1122,129 +1067,83 @@
     <t>NK1-7, NK1-3</t>
   </si>
   <si>
-    <t>Patient.contact.role</t>
-  </si>
-  <si>
-    <t>The kind of functional role</t>
-  </si>
-  <si>
-    <t>The nature of the functional role between the patient and the contact person.</t>
-  </si>
-  <si>
-    <t>This property is for functional relationships.  Personal relationships would be represented in `Patient.contact.relationship`.</t>
-  </si>
-  <si>
-    <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype|6.0.0-ballot3</t>
-  </si>
-  <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
     <t>A name associated with the contact person</t>
   </si>
   <si>
-    <t>A name associated with the contact person. Alternate/additional names for this contact can be found in the `additionalName` property.</t>
-  </si>
-  <si>
-    <t>Contact persons need to be identified by name. Where multiple names are required, such as legal name and usual (Name to Use) name, also refer to the `additionalName` property.</t>
+    <t>A name associated with the contact person.</t>
+  </si>
+  <si>
+    <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
+  </si>
+  <si>
+    <t>NK1-2</t>
+  </si>
+  <si>
+    <t>Patient.contact.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the person</t>
+  </si>
+  <si>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
+  </si>
+  <si>
+    <t>NK1-5, NK1-6, NK1-40</t>
+  </si>
+  <si>
+    <t>Patient.contact.address</t>
+  </si>
+  <si>
+    <t>Address for the contact person</t>
+  </si>
+  <si>
+    <t>Address for the contact person.</t>
+  </si>
+  <si>
+    <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
+  </si>
+  <si>
+    <t>NK1-4</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>NK1-15</t>
+  </si>
+  <si>
+    <t>Patient.contact.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that is associated with the contact</t>
+  </si>
+  <si>
+    <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
+  </si>
+  <si>
+    <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
     <t xml:space="preserve">pat-1
 </t>
   </si>
   <si>
-    <t>NK1-2</t>
-  </si>
-  <si>
-    <t>Patient.contact.additionalName</t>
-  </si>
-  <si>
-    <t>Additional names for the contact person</t>
-  </si>
-  <si>
-    <t>Additional names for the contact person.</t>
-  </si>
-  <si>
-    <t>**To maintain backward compatibility, `additionalName` was added as a way to express names beyond the single name that can be represented in `Patient.contact.name`.**- -When looking for an name of a given type, implementers should inspect both `Patient.contact.name` and `Patient.contact.additionalName`, and treat those two properties as a single combined logical list of names.</t>
-  </si>
-  <si>
-    <t>Patient.contact.telecom</t>
-  </si>
-  <si>
-    <t>A contact detail for the person</t>
-  </si>
-  <si>
-    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Contact may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
-  </si>
-  <si>
-    <t>NK1-5, NK1-6, NK1-40</t>
-  </si>
-  <si>
-    <t>Patient.contact.address</t>
-  </si>
-  <si>
-    <t>Address for the contact person</t>
-  </si>
-  <si>
-    <t>Address for the contact person. Alternate/additional addresses for this contact can be found in the `additionalAddress` property.</t>
-  </si>
-  <si>
-    <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
-  </si>
-  <si>
-    <t>NK1-4</t>
-  </si>
-  <si>
-    <t>Patient.contact.additionalAddress</t>
-  </si>
-  <si>
-    <t>Additional addresses for the contact person</t>
-  </si>
-  <si>
-    <t>Additional addresses for the contact person.</t>
-  </si>
-  <si>
-    <t>**To maintain backward compatibility, `additionalAddress` was added as a way to express addresses beyond the single address that can be represented in Patient.contact.address.**- -When looking for an address of a given type, implementers should inspect both `Patient.contact.address` and `Patient.contact.additionalAddress`, and treat those two properties as a single combined logical list of addresses.</t>
-  </si>
-  <si>
-    <t>Patient.contact.gender</t>
-  </si>
-  <si>
-    <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
-  </si>
-  <si>
-    <t>Needed to address the person correctly.</t>
-  </si>
-  <si>
-    <t>NK1-15</t>
-  </si>
-  <si>
-    <t>Patient.contact.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|6.0.0-ballot3)
-</t>
-  </si>
-  <si>
-    <t>Organization that is associated with the contact</t>
-  </si>
-  <si>
-    <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
-  </si>
-  <si>
-    <t>For guardians or business related contacts, the organization is relevant.</t>
-  </si>
-  <si>
     <t>scoper</t>
   </si>
   <si>
@@ -1278,16 +1177,9 @@
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children or both {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>LanguageCommunication</t>
   </si>
   <si>
-    <t>ParticipantLiving.communication</t>
-  </si>
-  <si>
     <t>patient.languageCommunication</t>
   </si>
   <si>
@@ -1306,12 +1198,10 @@
     <t>The language which can be used to communicate with the patient about his or her health</t>
   </si>
   <si>
-    <t>The language which may be used to communicate with the individual.</t>
-  </si>
-  <si>
-    <t>The language is commonly represented using the ISO-639-1 alpha code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha code for the region in upper case.  For example, "en" for English, or "en-US" for American English versus "en-AU" for Australian English, sgn-US for American Sign Language, sgn-NL for Dutch Sign Language, etc.--Not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
   </si>
   <si>
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
@@ -1357,7 +1247,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|6.0.0-ballot3|Practitioner|6.0.0-ballot3|PractitionerRole|6.0.0-ballot3)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1399,10 +1289,10 @@
     <t>Patient.link</t>
   </si>
   <si>
-    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual</t>
-  </si>
-  <si>
-    <t>Link to a Patient or RelatedPerson resource that concerns the same actual individual.</t>
+    <t>Link to another patient resource that concerns the same actual person</t>
+  </si>
+  <si>
+    <t>Link to another patient resource that concerns the same actual patient.</t>
   </si>
   <si>
     <t>There is no assumption that linked patient records have mutual links.</t>
@@ -1428,13 +1318,16 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|6.0.0-ballot3|RelatedPerson|6.0.0-ballot3)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
     <t>The other patient or related person resource that the link refers to</t>
   </si>
   <si>
+    <t>The other patient resource that the link refers to.</t>
+  </si>
+  <si>
     <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
   </si>
   <si>
@@ -1450,10 +1343,7 @@
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>The type of link between this patient resource and another Patient resource, or Patient/RelatedPerson when using the `seealso` code</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|6.0.0-ballot3</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1776,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1795,7 +1685,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1809,8 +1699,8 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.35546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1820,12 +1710,11 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.70703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="48.16015625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="48.16015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1952,9 +1841,6 @@
       <c r="AO1" t="s" s="1">
         <v>77</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>78</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1965,6873 +1851,6343 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AL2" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH9" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH10" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AN12" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AO23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>333</v>
+        <v>163</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI37" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>171</v>
+        <v>345</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>360</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH42" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>391</v>
+        <v>184</v>
       </c>
       <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>396</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>398</v>
+        <v>138</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>399</v>
+        <v>144</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>141</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>188</v>
+        <v>387</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>171</v>
+        <v>391</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH48" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH50" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>420</v>
+        <v>163</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>426</v>
+        <v>176</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>423</v>
+        <v>178</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>180</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>431</v>
+        <v>184</v>
       </c>
       <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH52" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>438</v>
+        <v>325</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>439</v>
+        <v>326</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>440</v>
+        <v>138</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>441</v>
+        <v>144</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>437</v>
+        <v>327</v>
       </c>
       <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>204</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>185</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>141</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>422</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP58">
+  <autoFilter ref="A1:AO55">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8841,7 +8197,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.2</t>
+    <t>1.4.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-mal-patient.xlsx
+++ b/currentbuild/StructureDefinition-mal-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.4</t>
+    <t>1.4.5</t>
   </si>
   <si>
     <t>Name</t>
